--- a/testcases/属性管理.xlsx
+++ b/testcases/属性管理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>用例名称</t>
   </si>
@@ -108,15 +108,6 @@
     <t>{"menuId": "219", "buttonId": "3"}</t>
   </si>
   <si>
-    <t>/sysback/template/producttemplateattr/createTemplateAttr</t>
-  </si>
-  <si>
-    <t>{"attributeName": "测试属性111", "aliasAttrName": "测试属性", "engName": "", "unit": "", "attributeType": "01"}</t>
-  </si>
-  <si>
-    <t>{"menuId": "217", "buttonId": "1"}</t>
-  </si>
-  <si>
     <t>/sysback/template/producttemplateattr/deleteTemplateAttrByUuids</t>
   </si>
   <si>
@@ -129,15 +120,6 @@
     <t>{"menuId": "217", "buttonId": "3"}</t>
   </si>
   <si>
-    <t>/sysback/template/producttemplate/createTemplate</t>
-  </si>
-  <si>
-    <t>{"name": "测试模板", "canUse": "1", "note": "111", "categoryUuid": "10000"}</t>
-  </si>
-  <si>
-    <t>{"menuId": "215", "buttonId": "2"}</t>
-  </si>
-  <si>
     <t>/sysback/template/producttemplate/baseDelete</t>
   </si>
   <si>
@@ -168,21 +150,12 @@
     <t>初始化属性值2</t>
   </si>
   <si>
-    <t>新增属性</t>
-  </si>
-  <si>
-    <t>删除属性</t>
-  </si>
-  <si>
     <t>初始化规格属性</t>
   </si>
   <si>
     <t>初始化非规格属性</t>
   </si>
   <si>
-    <t>删除模板</t>
-  </si>
-  <si>
     <t>初始化模板</t>
   </si>
   <si>
@@ -219,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"uuids": "#新增属性.uuid#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"uuid": "#通用.value1Uuid#","valueState": "1", "categoryUuid": "2100003092", "value": "脚本御用属性值1", "storeUuid": "system", "templateBelong": "01", "select": "", "categoryName": "", "inUse": "2", "attrUuid": null, "belongType": null, "belongUuid": null}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,14 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uuid": "#新增模板.uuid#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"uuid": "#通用.templateUuid#", "oper": "6674", "opeTime": "2022-01-26 09:04:24", "delFlag": 1, "createOper": "6674", "createOpeTime": "2022-01-20 15:37:21", "version": 17, "operationNumber": null, "orgId": "1002N11000000000HS44", "sortName": "opeTime", "sortType": "desc", "menuId": null, "buttonId": null, "loginUserId": null, "hrDepartmentNumber": null, "hrAreaId": null, "areaNo": null, "mapCondition": {}, "isUsed": "2", "canUse": "1", "categoryUuid": "10000", "createTime": "2022-01-20 15:37:21", "name": "脚本御用属性模板", "note": "测试勿动", "categoryName": "", "inUse": "2", "isRel": "", "isHaveAttr": null, "platCategoryUuid": null}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +225,14 @@
   </si>
   <si>
     <t>{"uuid": "#通用.valueTypeUuid#", "categoryName": "脚本御用属性值分类"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath": "retStatus", "exp":"2"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath": "retStatus", "exp":"2"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -674,7 +643,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -695,15 +664,15 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -715,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -724,12 +693,12 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -741,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -750,12 +719,12 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -767,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -776,15 +745,15 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -796,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -805,12 +774,12 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -822,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -831,12 +800,12 @@
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -848,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -857,15 +826,15 @@
         <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -874,53 +843,50 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -929,79 +895,76 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1010,120 +973,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
